--- a/BOM/BillOfMaterials.xlsx
+++ b/BOM/BillOfMaterials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianoelia/Documents/Projects/Open Source Projects/led-matrix-etch-a-sketch/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4307663-E361-A446-B0DB-03266DC493A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F345A1A-7FB2-414D-87C8-B17F33A14BF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="760" windowWidth="33600" windowHeight="20540" xr2:uid="{56537A04-7C3E-E748-850A-BAFEBF7D2701}"/>
   </bookViews>
@@ -319,6 +319,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -341,13 +348,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D99F87C5-C8BE-DD4D-AC2D-6EBCCE2A5C55}" name="Table2" displayName="Table2" ref="L4:N17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D99F87C5-C8BE-DD4D-AC2D-6EBCCE2A5C55}" name="Table2" displayName="Table2" ref="L4:N17" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="L4:N17" xr:uid="{0F8C0C3E-0501-044A-A423-AAF21607BA58}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{79A20795-DA60-8741-A26D-0767DB465EAD}" name="QTY"/>
@@ -688,7 +688,7 @@
   <dimension ref="D4:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BOM/BillOfMaterials.xlsx
+++ b/BOM/BillOfMaterials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianoelia/Documents/Projects/Open Source Projects/led-matrix-etch-a-sketch/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F345A1A-7FB2-414D-87C8-B17F33A14BF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163968FB-8DDD-9448-8628-A5F3CC42BA07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="760" windowWidth="33600" windowHeight="20540" xr2:uid="{56537A04-7C3E-E748-850A-BAFEBF7D2701}"/>
+    <workbookView xWindow="6800" yWindow="7140" windowWidth="33600" windowHeight="20540" xr2:uid="{56537A04-7C3E-E748-850A-BAFEBF7D2701}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,31 +263,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -305,12 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -377,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D99F87C5-C8BE-DD4D-AC2D-6EBCCE2A5C55}" name="Table2" displayName="Table2" ref="L4:N17" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="L4:N17" xr:uid="{0F8C0C3E-0501-044A-A423-AAF21607BA58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D99F87C5-C8BE-DD4D-AC2D-6EBCCE2A5C55}" name="Table2" displayName="Table2" ref="D23:F36" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="D23:F36" xr:uid="{0F8C0C3E-0501-044A-A423-AAF21607BA58}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{79A20795-DA60-8741-A26D-0767DB465EAD}" name="QTY"/>
     <tableColumn id="2" xr3:uid="{EF21A06F-F89E-2D4C-AB8C-90DF86718A06}" name="Part Name"/>
@@ -685,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B6B50D-FCA5-B94E-9646-A98E6AAA2E9A}">
-  <dimension ref="D4:P20"/>
+  <dimension ref="D4:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
     <col min="12" max="12" width="6.83203125" customWidth="1"/>
@@ -702,7 +680,7 @@
     <col min="14" max="14" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -718,19 +696,8 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>1</v>
       </c>
@@ -747,17 +714,8 @@
         <f>G5*D5</f>
         <v>33.1</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>1</v>
       </c>
@@ -774,17 +732,8 @@
         <f t="shared" ref="H6:H19" si="0">G6*D6</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>1</v>
       </c>
@@ -801,17 +750,8 @@
         <f t="shared" si="0"/>
         <v>4.3899999999999997</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>1</v>
       </c>
@@ -828,17 +768,8 @@
         <f t="shared" si="0"/>
         <v>1.89</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>2</v>
       </c>
@@ -855,17 +786,8 @@
         <f t="shared" si="0"/>
         <v>7.32</v>
       </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1</v>
       </c>
@@ -882,17 +804,8 @@
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1</v>
       </c>
@@ -909,17 +822,8 @@
         <f t="shared" si="0"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>1</v>
       </c>
@@ -936,17 +840,8 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>1</v>
       </c>
@@ -963,17 +858,8 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>4</v>
       </c>
@@ -990,17 +876,8 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>3</v>
       </c>
@@ -1017,17 +894,8 @@
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>2</v>
       </c>
@@ -1044,17 +912,8 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1</v>
       </c>
@@ -1071,17 +930,8 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>1</v>
       </c>
@@ -1099,7 +949,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D19">
         <v>1</v>
       </c>
@@ -1117,13 +967,167 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(H5:H19)</f>
         <v>109.6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
